--- a/biology/Zoologie/Alestopetersius/Alestopetersius.xlsx
+++ b/biology/Zoologie/Alestopetersius/Alestopetersius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alestopetersius est un genre de poissons d'eau douce de la famille des Alestidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Alestopetersius se rencontrent en Afrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Alestopetersius se rencontrent en Afrique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (13 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (13 décembre 2023) :
 Alestopetersius bifasciatus (Poll, 1967)
 Alestopetersius brichardi Poll, 1967
 Alestopetersius caudalis (Boulenger, 1899)
@@ -582,9 +598,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Alestopetersius Hoedeman, 1951[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Alestopetersius Hoedeman, 1951,.
 </t>
         </is>
       </c>
@@ -613,9 +631,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Alestopetersius, n'a pas d'étymologie avérée mais est supposé être la combinaison des deux genres que sont Alestes et Petersius, le premier étant le genre type de la famille des Alestidae et le deuxième le genre dans lequel était initialement classée l'espèce type Alestopetersius hilgendorfi[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Alestopetersius, n'a pas d'étymologie avérée mais est supposé être la combinaison des deux genres que sont Alestes et Petersius, le premier étant le genre type de la famille des Alestidae et le deuxième le genre dans lequel était initialement classée l'espèce type Alestopetersius hilgendorfi.
 </t>
         </is>
       </c>
@@ -644,7 +664,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) J. J. Hoedeman, « Studies on African Characid Fishes I. The tribe Alestidi (I) », Beaufortia, NBC, vol. 1, no 3,‎ 10 mai 1951, p. 1-8 (ISSN 0067-4745, lire en ligne)</t>
         </is>
